--- a/testdata/ex2.xlsx
+++ b/testdata/ex2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickarvatu/Desktop/Go Workspace/xlsx-recursion-detector/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BA2B66-5C2A-46DE-901C-3C849AB256A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC2C9B-7E5B-3443-9700-5B3DB2E2999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C960706B-0DE9-4B35-9132-9D916C0C2874}"/>
+    <workbookView xWindow="2280" yWindow="4720" windowWidth="29040" windowHeight="15840" xr2:uid="{C960706B-0DE9-4B35-9132-9D916C0C2874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,12 +384,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -410,49 +410,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F2">
         <f>A1*B1/C1</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3">
         <f>A1-B1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4">
         <f>A1/B1+3</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5">
         <f ca="1">A1*B1/F5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6">
         <f ca="1">A1+F6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7">
         <f ca="1">A1-F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8">
         <f ca="1">F6/F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9">
         <f ca="1">F8+F7+F6+F5+F4+F3*A1</f>
         <v>0</v>
